--- a/data/trans_bre/P24_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>10,59</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,17</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>133,97%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>104,03%</t>
+          <t>134,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>148,72%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>64,53%</t>
+          <t>111,41%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>156,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>149,89%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>64,49%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>47,21%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 9,71</t>
+          <t>3,45; 9,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,84</t>
+          <t>2,28; 8,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,97</t>
+          <t>4,77; 11,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,46</t>
+          <t>6,21; 12,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,73</t>
+          <t>6,59; 14,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,62; 269,83</t>
+          <t>3,72; 10,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 164,44</t>
+          <t>3,04; 11,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,43; 182,62</t>
+          <t>42,9; 254,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,77; 256,5</t>
+          <t>26,74; 160,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,89; 114,32</t>
+          <t>49,7; 192,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>76,74; 263,38</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>74,38; 269,66</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 112,6</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 83,91</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>9,61</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,94</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>69,84%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>66,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>67,98%</t>
+          <t>26,1%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34,13%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>90,95%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>68,0%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>97,02%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 6,62</t>
+          <t>0,69; 6,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 8,15</t>
+          <t>-0,63; 9,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 6,17</t>
+          <t>-1,01; 6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,94</t>
+          <t>-1,62; 6,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 14,99</t>
+          <t>4,47; 15,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,72; 166,19</t>
+          <t>0,93; 15,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 154,8</t>
+          <t>3,95; 17,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 71,7</t>
+          <t>9,47; 168,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 95,41</t>
+          <t>-13,35; 185,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 180,01</t>
+          <t>-8,42; 79,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,74; 95,8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32,1; 176,43</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 170,8</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>29,82; 228,07</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,87</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>145,32%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>124,91%</t>
+          <t>145,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>-22,28%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>125,64%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>92,26%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>40,25%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 12,88</t>
+          <t>1,26; 13,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 10,06</t>
+          <t>-21,86; 4,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 13,14</t>
+          <t>0,76; 13,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 13,67</t>
+          <t>-0,44; 13,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-15,65; 18,3</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 580,85</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,45; 189,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 410,02</t>
+          <t>2,38; 619,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 330,98</t>
+          <t>-79,7; 93,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 387,46</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 338,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-54,52; 194,68</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>9,66</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,32</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>108,94%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65,46%</t>
+          <t>108,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>70,43%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>89,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>99,76%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>65,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>56,45%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,35</t>
+          <t>3,52; 7,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 7,27</t>
+          <t>1,09; 6,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,82</t>
+          <t>3,61; 8,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,8</t>
+          <t>4,26; 8,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,78</t>
+          <t>6,29; 13,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,6; 174,62</t>
+          <t>4,03; 10,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 117,59</t>
+          <t>4,28; 11,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,12; 105,6</t>
+          <t>56,86; 186,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,1; 137,59</t>
+          <t>7,16; 103,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 112,37</t>
+          <t>37,76; 116,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47,29; 143,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>50,53; 160,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>30,71; 108,75</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>26,21; 93,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P24_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,15</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,5</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10,59</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>134,03%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>78,44%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>111,41%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>156,4%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>149,89%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>64,49%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>47,21%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.733824336766981</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.022536398440645</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.222778491295415</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.291225596128683</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>10.63152267007852</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>7.168621400846884</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>7.4740100917073</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.340317554189471</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.8908463913829934</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.117003610022214</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.513140298657541</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.503378574508274</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.6448641858730757</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.4822065799020416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 9,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 8,7</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 11,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 12,64</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 14,58</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 10,72</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>3,04; 11,24</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>42,9; 254,14</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>26,74; 160,41</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>49,7; 192,84</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>76,74; 263,38</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>74,38; 269,66</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>28,95; 112,6</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>15,8; 83,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.454468717345463</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.861688886252141</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.723161077877403</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.974715538164216</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>6.710483586291153</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>3.715907616376576</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>3.098736813006214</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.4289529455657605</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.3359284614078565</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.4694417757940396</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.725684245768096</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.7416684870286319</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.2894584421189056</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.1709577916724289</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.636507223768053</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.258480736895478</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.5245006230565</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.48344357316929</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>14.65130944957767</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>10.71688672204038</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>11.34125909005975</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.541432408938318</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.795625204459962</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.934839679908846</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>2.5777618208542</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>2.669266737310977</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.12596880115909</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.844010822475469</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,61</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,14</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>69,81%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>66,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>26,1%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>34,13%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>90,95%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>68,0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>97,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 6,74</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 9,26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 6,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 6,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,47; 15,14</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 15,54</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 17,69</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>9,47; 168,25</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-13,35; 185,2</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-8,42; 79,05</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-14,74; 95,8</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>32,1; 176,43</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 170,8</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>29,82; 228,07</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.715506489935473</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.739481876869917</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.41551132548803</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.177083699636492</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>9.167333460789081</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.937139699123459</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>10.13008684567675</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6981278163298241</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6664184841924016</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2277978781214652</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.3404093994334383</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.8760662402176039</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.6800023820665012</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.9621824853884616</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>145,35%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-22,28%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>125,64%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>92,26%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>40,25%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.6912424467551987</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.549006960373511</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.228783286191526</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.622166439490688</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>4.275980635213488</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.9324085545111823</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>3.907232079011666</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.09468209237004573</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1289966648232698</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.106969228566427</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1437471160598809</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.3024670033951414</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.03935594336699708</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.2733357210756103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 13,26</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-21,86; 4,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 13,23</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 13,56</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-15,65; 18,3</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 619,36</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-79,7; 93,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 387,46</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-13,22; 338,51</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-54,52; 194,68</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.739242683142406</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.867104978511081</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.141410504624941</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.001181787455055</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>14.29635706841127</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>15.53744839231548</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>17.70180171545163</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.682486910940989</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.873967635653674</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7479965558470019</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.9615778687606524</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.690944177799949</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>1.708006181440823</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>2.228133185295748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,66</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,32</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>108,96%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>55,41%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>70,43%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>89,05%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>99,76%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>65,08%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>56,45%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>6.532653432732212</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.413195374701042</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.667094622668028</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.760134740973263</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.403557451473492</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>1.453465724623962</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.03900859101099581</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.143079705042963</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.9428258235603277</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.4348787150044729</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,52; 7,67</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 6,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 8,3</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 8,98</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6,29; 13,17</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 10,6</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 11,64</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>56,86; 186,26</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>7,16; 103,27</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>37,76; 116,58</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>47,29; 143,76</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>50,53; 160,85</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>30,71; 108,75</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>26,21; 93,15</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.260226465117974</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.74132272930746</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2352556941973731</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3715449322476879</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-15.20469252159226</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>0.02379291318116068</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7468753087129809</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.0320523716761304</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.1096343785594392</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.5439294812887994</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.26445578417479</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.463578331107428</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.93170680138134</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.48058248311435</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>18.89401898946534</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>6.193615832501862</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.715900933945815</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>3.583268248719415</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>3.381465667601316</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>2.058140001135405</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.53406590963193</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.850566967152464</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.786036360533356</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.600382741122646</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>9.574245623404597</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>7.321873150710656</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>8.173546397611162</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.089606385964774</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.6581149269222885</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.6828916470312717</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.8749155611973294</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.9928514755135429</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.650844358673566</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.5719794424082661</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.519020222537834</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.720052127413616</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.437239005706031</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4.083491305693386</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>6.149390337070646</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>4.025063116039559</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>4.44869892239026</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.5686139359075375</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1503924074814927</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.3518993754035346</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.4499788371414961</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.4895966937414005</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.3071104783941687</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.2693210155771305</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.666392252135214</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.321866839417682</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.160155558368082</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.86318681817559</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>13.03686826813417</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>10.59992357917432</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>11.75230160652783</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.862570858848638</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.170615457829927</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.132153588185368</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.413133754115831</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.586691571610247</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1.087506537496859</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.9381278969533487</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
